--- a/lab2/Libro1.xlsx
+++ b/lab2/Libro1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/w_mendez_uniandes_edu_co/Documents/7mo_semestre/MOS/labs/Labs_MOS/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{14C3763D-3AA4-4F2F-935F-C2E135535904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4243BDA9-6924-4B39-B902-7AC31AABA9BE}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{14C3763D-3AA4-4F2F-935F-C2E135535904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0064ECCB-252A-4F3A-90D1-E23DEEEAF86C}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{4A81847E-FF8D-403A-BA55-84A5E1A72E9E}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{4A81847E-FF8D-403A-BA55-84A5E1A72E9E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="p3" sheetId="1" r:id="rId1"/>
+    <sheet name="p4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -423,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D867F4F-95C4-4EA5-BA17-58101AB474CD}">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -1240,4 +1241,391 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B553C7-BFB3-453F-A745-ACAC410C1ED6}">
+  <dimension ref="B2:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>29</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f>SQRT((E$3-$C5)^2+(E$4-$D5)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>SQRT((F$3-$C5)^2+(F$4-$D5)^2)</f>
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="G5">
+        <f>SQRT((G$3-$C5)^2+(G$4-$D5)^2)</f>
+        <v>11.704699910719626</v>
+      </c>
+      <c r="H5">
+        <f>SQRT((H$3-$C5)^2+(H$4-$D5)^2)</f>
+        <v>25.495097567963924</v>
+      </c>
+      <c r="I5">
+        <f>SQRT((I$3-$C5)^2+(I$4-$D5)^2)</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="J5">
+        <f>SQRT((J$3-$C5)^2+(J$4-$D5)^2)</f>
+        <v>9.8488578017961039</v>
+      </c>
+      <c r="K5">
+        <f>SQRT((K$3-$C5)^2+(K$4-$D5)^2)</f>
+        <v>8.4852813742385695</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>SQRT((E$3-$C6)^2+(E$4-$D6)^2)</f>
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="F6">
+        <f>SQRT((F$3-$C6)^2+(F$4-$D6)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>SQRT((G$3-$C6)^2+(G$4-$D6)^2)</f>
+        <v>13.038404810405298</v>
+      </c>
+      <c r="H6">
+        <f>SQRT((H$3-$C6)^2+(H$4-$D6)^2)</f>
+        <v>30.610455730027933</v>
+      </c>
+      <c r="I6">
+        <f>SQRT((I$3-$C6)^2+(I$4-$D6)^2)</f>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="J6">
+        <f>SQRT((J$3-$C6)^2+(J$4-$D6)^2)</f>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="K6">
+        <f>SQRT((K$3-$C6)^2+(K$4-$D6)^2)</f>
+        <v>13.601470508735444</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>SQRT((E$3-$C7)^2+(E$4-$D7)^2)</f>
+        <v>11.704699910719626</v>
+      </c>
+      <c r="F7">
+        <f>SQRT((F$3-$C7)^2+(F$4-$D7)^2)</f>
+        <v>13.038404810405298</v>
+      </c>
+      <c r="G7">
+        <f>SQRT((G$3-$C7)^2+(G$4-$D7)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>SQRT((H$3-$C7)^2+(H$4-$D7)^2)</f>
+        <v>23.769728648009426</v>
+      </c>
+      <c r="I7">
+        <f>SQRT((I$3-$C7)^2+(I$4-$D7)^2)</f>
+        <v>14.422205101855956</v>
+      </c>
+      <c r="J7">
+        <f>SQRT((J$3-$C7)^2+(J$4-$D7)^2)</f>
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <f>SQRT((K$3-$C7)^2+(K$4-$D7)^2)</f>
+        <v>11.180339887498949</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <f>SQRT((E$3-$C8)^2+(E$4-$D8)^2)</f>
+        <v>25.495097567963924</v>
+      </c>
+      <c r="F8">
+        <f>SQRT((F$3-$C8)^2+(F$4-$D8)^2)</f>
+        <v>30.610455730027933</v>
+      </c>
+      <c r="G8">
+        <f>SQRT((G$3-$C8)^2+(G$4-$D8)^2)</f>
+        <v>23.769728648009426</v>
+      </c>
+      <c r="H8">
+        <f>SQRT((H$3-$C8)^2+(H$4-$D8)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>SQRT((I$3-$C8)^2+(I$4-$D8)^2)</f>
+        <v>23.430749027719962</v>
+      </c>
+      <c r="J8">
+        <f>SQRT((J$3-$C8)^2+(J$4-$D8)^2)</f>
+        <v>34.713109915419565</v>
+      </c>
+      <c r="K8">
+        <f>SQRT((K$3-$C8)^2+(K$4-$D8)^2)</f>
+        <v>17.029386365926403</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f>SQRT((E$3-$C9)^2+(E$4-$D9)^2)</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="F9">
+        <f>SQRT((F$3-$C9)^2+(F$4-$D9)^2)</f>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="G9">
+        <f>SQRT((G$3-$C9)^2+(G$4-$D9)^2)</f>
+        <v>14.422205101855956</v>
+      </c>
+      <c r="H9">
+        <f>SQRT((H$3-$C9)^2+(H$4-$D9)^2)</f>
+        <v>23.430749027719962</v>
+      </c>
+      <c r="I9">
+        <f>SQRT((I$3-$C9)^2+(I$4-$D9)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>SQRT((J$3-$C9)^2+(J$4-$D9)^2)</f>
+        <v>11.313708498984761</v>
+      </c>
+      <c r="K9">
+        <f>SQRT((K$3-$C9)^2+(K$4-$D9)^2)</f>
+        <v>7.2801098892805181</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f>SQRT((E$3-$C10)^2+(E$4-$D10)^2)</f>
+        <v>9.8488578017961039</v>
+      </c>
+      <c r="F10">
+        <f>SQRT((F$3-$C10)^2+(F$4-$D10)^2)</f>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="G10">
+        <f>SQRT((G$3-$C10)^2+(G$4-$D10)^2)</f>
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <f>SQRT((H$3-$C10)^2+(H$4-$D10)^2)</f>
+        <v>34.713109915419565</v>
+      </c>
+      <c r="I10">
+        <f>SQRT((I$3-$C10)^2+(I$4-$D10)^2)</f>
+        <v>11.313708498984761</v>
+      </c>
+      <c r="J10">
+        <f>SQRT((J$3-$C10)^2+(J$4-$D10)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>SQRT((K$3-$C10)^2+(K$4-$D10)^2)</f>
+        <v>18.027756377319946</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>SQRT((E$3-$C11)^2+(E$4-$D11)^2)</f>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="F11">
+        <f>SQRT((F$3-$C11)^2+(F$4-$D11)^2)</f>
+        <v>13.601470508735444</v>
+      </c>
+      <c r="G11">
+        <f>SQRT((G$3-$C11)^2+(G$4-$D11)^2)</f>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="H11">
+        <f>SQRT((H$3-$C11)^2+(H$4-$D11)^2)</f>
+        <v>17.029386365926403</v>
+      </c>
+      <c r="I11">
+        <f>SQRT((I$3-$C11)^2+(I$4-$D11)^2)</f>
+        <v>7.2801098892805181</v>
+      </c>
+      <c r="J11">
+        <f>SQRT((J$3-$C11)^2+(J$4-$D11)^2)</f>
+        <v>18.027756377319946</v>
+      </c>
+      <c r="K11">
+        <f>SQRT((K$3-$C11)^2+(K$4-$D11)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>K8+K10</f>
+        <v>35.057142743246345</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>K8+K9+I5+F5+J5</f>
+        <v>43.666624489755193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>K8+K6+J6</f>
+        <v>37.70192468652732</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>K8+K5+J5</f>
+        <v>35.363525541961081</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>K8+K9+J9</f>
+        <v>35.623204754191683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>